--- a/TestData/AccountCreationShipTo.xlsx
+++ b/TestData/AccountCreationShipTo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>Run</t>
   </si>
@@ -79,73 +79,67 @@
     <t>SrcCountry</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>AccName_Automation_Billto_89</t>
+  </si>
+  <si>
+    <t>AccName_Automation_Shipto_89</t>
+  </si>
+  <si>
+    <t>PLNA</t>
+  </si>
+  <si>
+    <t>NATIONAL ACCOUNT</t>
+  </si>
+  <si>
+    <t>ADVANTAGE</t>
+  </si>
+  <si>
+    <t>111-111-1122</t>
+  </si>
+  <si>
+    <t>221-111-2222</t>
+  </si>
+  <si>
+    <t>Direct</t>
+  </si>
+  <si>
+    <t>U.S. Dollar</t>
+  </si>
+  <si>
+    <t>http://Michelintesting.com</t>
+  </si>
+  <si>
+    <t>R123489</t>
+  </si>
+  <si>
+    <t>1 Parkway South</t>
+  </si>
+  <si>
+    <t>Greenville</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>North America</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
-    <t>AccName_Automation_Billto_83</t>
-  </si>
-  <si>
-    <t>AccName_Automation_Shipto_83</t>
-  </si>
-  <si>
-    <t>PLNA</t>
-  </si>
-  <si>
-    <t>NATIONAL ACCOUNT</t>
-  </si>
-  <si>
-    <t>ADVANTAGE</t>
-  </si>
-  <si>
-    <t>111-111-1122</t>
-  </si>
-  <si>
-    <t>221-111-2222</t>
-  </si>
-  <si>
-    <t>Direct</t>
-  </si>
-  <si>
-    <t>U.S. Dollar</t>
-  </si>
-  <si>
-    <t>http://Michelintesting.com</t>
-  </si>
-  <si>
-    <t>R123489</t>
-  </si>
-  <si>
-    <t>1 Parkway South</t>
-  </si>
-  <si>
-    <t>Greenville</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>US</t>
-  </si>
-  <si>
-    <t>Great</t>
-  </si>
-  <si>
-    <t>North America</t>
-  </si>
-  <si>
     <t>AccName_Automation_Billto_84</t>
   </si>
   <si>
     <t>AccName_Automation_Shipto_84</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>AccName_Automation_Billto_89</t>
-  </si>
-  <si>
-    <t>AccName_Automation_Shipto_89</t>
   </si>
   <si>
     <t>AccName_Automation_Billto_90</t>
@@ -160,10 +154,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="260" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="258" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="261" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="259" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="518" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="516" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="519" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="517" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="9" formatCode="0%"/>
   </numFmts>
   <fonts count="5">
@@ -247,10 +241,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="260" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="258" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="261" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="259" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="518" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="516" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="519" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="517" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyBorder="1" applyFont="1" applyFill="1"/>
@@ -270,7 +264,7 @@
   <sheetPr codeName="Sheet1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -421,7 +415,7 @@
         <v>37</v>
       </c>
       <c r="T2" s="22">
-        <v>10000193</v>
+        <v>10000205</v>
       </c>
       <c r="U2" s="22" t="s">
         <v>38</v>
@@ -429,16 +423,16 @@
     </row>
     <row r="3" s="22" customFormat="1">
       <c r="A3" s="23" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B3" s="24">
         <v>2</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E3" s="22" t="s">
         <v>24</v>
@@ -494,16 +488,16 @@
     </row>
     <row r="4" s="22" customFormat="1">
       <c r="A4" s="23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="24">
         <v>3</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>24</v>
@@ -559,16 +553,16 @@
     </row>
     <row r="5" s="22" customFormat="1">
       <c r="A5" s="23" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B5" s="24">
         <v>4</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>24</v>
